--- a/documentos/Dashboard PI.xlsx
+++ b/documentos/Dashboard PI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/bruno_lima_sptech_school/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\sprint2\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="8_{AF2ECDB9-770F-4C77-A00B-FF6F769E2725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4FA0B06-BF3B-4D9D-B691-3B3A8EAB69CC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3705C04D-7051-4ACF-923F-CFFDE2164F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{0EBB4372-76FE-4361-941E-10377D18A482}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{0EBB4372-76FE-4361-941E-10377D18A482}"/>
   </bookViews>
   <sheets>
     <sheet name="Linha - Ocupação por período" sheetId="5" r:id="rId1"/>
@@ -502,14 +502,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -6032,57 +6032,58 @@
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <f>(100 *  COUNTIF(Dados!C2:C271,1) / (COUNTIF(Dados!C2:C271,1) + COUNTIF(Dados!C2:C271,0)))</f>
         <v>47.777777777777779</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <f>_xlfn.XLOOKUP(MAX(Dados!E2:E28),Dados!E2:E28,Dados!B2:B28)</f>
         <v>0.70833333333333404</v>
       </c>
-      <c r="D3" s="29"/>
-    </row>
-    <row r="4" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="29" t="s">
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <f>_xlfn.XLOOKUP(MIN(Dados!E2:E28),Dados!E2:E28,Dados!B2:B28)</f>
         <v>0.4375</v>
       </c>
-      <c r="D4" s="29"/>
-    </row>
-    <row r="7" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="29" t="s">
+      <c r="D4" s="28"/>
+    </row>
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="29" t="s">
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <f>100 * SUM(Dados!E2:E10) / 90</f>
         <v>23.333333333333332</v>
       </c>
@@ -6090,11 +6091,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <f>100 * SUM(Dados!E11:E21) / 110</f>
         <v>47.272727272727273</v>
       </c>
@@ -6102,11 +6103,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <f>100 * SUM(Dados!E22:E28) / 70</f>
         <v>80</v>
       </c>
@@ -6148,37 +6149,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C796462F-3953-4329-A4A7-5DA56C645812}">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <f>(100 *  COUNTIF(Dados!C2:C28,1) / (COUNTIF(Dados!C2:C28,1) + COUNTIF(Dados!C2:C28,0)))</f>
         <v>44.444444444444443</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B7" s="29" t="s">
+    <row r="7" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="29" t="s">
+    <row r="8" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <f>100 * SUM(Dados!C2:C10) / 9</f>
         <v>77.777777777777771</v>
       </c>
@@ -6186,11 +6187,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <f>100 * SUM(Dados!C11:C21) / 11</f>
         <v>36.363636363636367</v>
       </c>
@@ -6198,11 +6199,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <f>100 * SUM(Dados!C22:C28) / 7</f>
         <v>14.285714285714286</v>
       </c>
@@ -6244,13 +6245,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E42EF97-4F44-48D7-B051-2A19AEFC4742}">
   <dimension ref="A1:M271"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M271"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -6270,11 +6271,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>0.27083333333333331</v>
       </c>
       <c r="C2">
@@ -6284,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>SUM(C2,C29,C56,C83,C110,C137,C164,C191,C218,C245)</f>
+        <f t="shared" ref="E2:E28" si="0">SUM(C2,C29,C56,C83,C110,C137,C164,C191,C218,C245)</f>
         <v>2</v>
       </c>
       <c r="G2">
@@ -6295,11 +6296,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>0.29166666666666669</v>
       </c>
       <c r="C3">
@@ -6309,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f>SUM(C3,C30,C57,C84,C111,C138,C165,C192,C219,C246)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G3">
@@ -6320,11 +6321,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>0.3125</v>
       </c>
       <c r="C4">
@@ -6334,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <f>SUM(C4,C31,C58,C85,C112,C139,C166,C193,C220,C247)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G4">
@@ -6345,11 +6346,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>0.33333333333333298</v>
       </c>
       <c r="C5">
@@ -6359,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f>SUM(C5,C32,C59,C86,C113,C140,C167,C194,C221,C248)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G5">
@@ -6370,11 +6371,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>0.35416666666666702</v>
       </c>
       <c r="C6">
@@ -6384,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>SUM(C6,C33,C60,C87,C114,C141,C168,C195,C222,C249)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G6">
@@ -6392,14 +6393,14 @@
       </c>
       <c r="M6">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>0.375</v>
       </c>
       <c r="C7">
@@ -6409,7 +6410,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <f>SUM(C7,C34,C61,C88,C115,C142,C169,C196,C223,C250)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G7">
@@ -6420,11 +6421,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>0.39583333333333298</v>
       </c>
       <c r="C8">
@@ -6434,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <f>SUM(C8,C35,C62,C89,C116,C143,C170,C197,C224,C251)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G8">
@@ -6445,11 +6446,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>0.41666666666666702</v>
       </c>
       <c r="C9">
@@ -6459,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f>SUM(C9,C36,C63,C90,C117,C144,C171,C198,C225,C252)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G9">
@@ -6467,14 +6468,14 @@
       </c>
       <c r="M9">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>0.4375</v>
       </c>
       <c r="C10">
@@ -6484,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>SUM(C10,C37,C64,C91,C118,C145,C172,C199,C226,C253)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10">
@@ -6495,11 +6496,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="C11">
@@ -6509,22 +6510,22 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>SUM(C11,C38,C65,C92,C119,C146,C173,C200,C227,C254)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="M11">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M11:M20" ca="1" si="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>0.47916666666666702</v>
       </c>
       <c r="C12">
@@ -6534,22 +6535,22 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>SUM(C12,C39,C66,C93,C120,C147,C174,C201,C228,C255)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="M12">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>0.5</v>
       </c>
       <c r="C13">
@@ -6559,22 +6560,22 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>SUM(C13,C40,C67,C94,C121,C148,C175,C202,C229,C256)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="M13">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>0.52083333333333304</v>
       </c>
       <c r="C14">
@@ -6584,22 +6585,22 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <f>SUM(C14,C41,C68,C95,C122,C149,C176,C203,C230,C257)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="M14">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="C15">
@@ -6609,22 +6610,22 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f>SUM(C15,C42,C69,C96,C123,C150,C177,C204,C231,C258)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="M15">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>0.5625</v>
       </c>
       <c r="C16">
@@ -6634,22 +6635,22 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <f>SUM(C16,C43,C70,C97,C124,C151,C178,C205,C232,C259)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="M16">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="32">
         <v>0.58333333333333404</v>
       </c>
       <c r="C17">
@@ -6659,22 +6660,22 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <f>SUM(C17,C44,C71,C98,C125,C152,C179,C206,C233,C260)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="M17">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="32">
         <v>0.60416666666666696</v>
       </c>
       <c r="C18">
@@ -6684,22 +6685,22 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <f>SUM(C18,C45,C72,C99,C126,C153,C180,C207,C234,C261)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="M18">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>0.625</v>
       </c>
       <c r="C19">
@@ -6709,22 +6710,22 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>SUM(C19,C46,C73,C100,C127,C154,C181,C208,C235,C262)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="M19">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>0.64583333333333404</v>
       </c>
       <c r="C20">
@@ -6734,22 +6735,22 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f>SUM(C20,C47,C74,C101,C128,C155,C182,C209,C236,C263)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="M20">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="C21">
@@ -6759,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>SUM(C21,C48,C75,C102,C129,C156,C183,C210,C237,C264)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G21">
@@ -6767,14 +6768,14 @@
       </c>
       <c r="M21">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>0.6875</v>
       </c>
       <c r="C22">
@@ -6784,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f>SUM(C22,C49,C76,C103,C130,C157,C184,C211,C238,C265)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G22">
@@ -6795,11 +6796,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>0.70833333333333404</v>
       </c>
       <c r="C23">
@@ -6809,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f>SUM(C23,C50,C77,C104,C131,C158,C185,C212,C239,C266)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G23">
@@ -6817,14 +6818,14 @@
       </c>
       <c r="M23">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>0.72916666666666696</v>
       </c>
       <c r="C24">
@@ -6834,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f>SUM(C24,C51,C78,C105,C132,C159,C186,C213,C240,C267)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G24">
@@ -6845,11 +6846,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>0.750000000000001</v>
       </c>
       <c r="C25">
@@ -6859,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f>SUM(C25,C52,C79,C106,C133,C160,C187,C214,C241,C268)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G25">
@@ -6870,11 +6871,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>0.77083333333333404</v>
       </c>
       <c r="C26">
@@ -6884,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>SUM(C26,C53,C80,C107,C134,C161,C188,C215,C242,C269)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G26">
@@ -6895,11 +6896,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="C27">
@@ -6909,7 +6910,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f>SUM(C27,C54,C81,C108,C135,C162,C189,C216,C243,C270)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G27">
@@ -6920,11 +6921,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>0.812500000000001</v>
       </c>
       <c r="C28">
@@ -6934,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f>SUM(C28,C55,C82,C109,C136,C163,C190,C217,C244,C271)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G28">
@@ -6945,11 +6946,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <v>0.27083333333333331</v>
       </c>
       <c r="C29">
@@ -6966,11 +6967,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>0.29166666666666669</v>
       </c>
       <c r="C30">
@@ -6987,11 +6988,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="33">
+      <c r="B31" s="32">
         <v>0.3125</v>
       </c>
       <c r="C31">
@@ -7008,11 +7009,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>0.33333333333333298</v>
       </c>
       <c r="C32">
@@ -7026,14 +7027,14 @@
       </c>
       <c r="M32">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="32">
         <v>0.35416666666666702</v>
       </c>
       <c r="C33">
@@ -7050,11 +7051,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>0.375</v>
       </c>
       <c r="C34">
@@ -7071,11 +7072,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>0.39583333333333298</v>
       </c>
       <c r="C35">
@@ -7092,11 +7093,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="33">
+      <c r="B36" s="32">
         <v>0.41666666666666702</v>
       </c>
       <c r="C36">
@@ -7113,11 +7114,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="32">
         <v>0.4375</v>
       </c>
       <c r="C37">
@@ -7131,14 +7132,14 @@
       </c>
       <c r="M37">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="33">
+      <c r="B38" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="C38">
@@ -7151,15 +7152,15 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M38:M47" ca="1" si="2">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="32">
         <v>0.47916666666666702</v>
       </c>
       <c r="C39">
@@ -7172,15 +7173,15 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="32">
         <v>0.5</v>
       </c>
       <c r="C40">
@@ -7193,15 +7194,15 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="32">
         <v>0.52083333333333304</v>
       </c>
       <c r="C41">
@@ -7214,15 +7215,15 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="C42">
@@ -7235,15 +7236,15 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="32">
         <v>0.5625</v>
       </c>
       <c r="C43">
@@ -7256,15 +7257,15 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="32">
         <v>0.58333333333333404</v>
       </c>
       <c r="C44">
@@ -7277,15 +7278,15 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="32">
         <v>0.60416666666666696</v>
       </c>
       <c r="C45">
@@ -7298,15 +7299,15 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="32">
         <v>0.625</v>
       </c>
       <c r="C46">
@@ -7319,15 +7320,15 @@
         <v>1</v>
       </c>
       <c r="M46">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="32">
         <v>0.64583333333333404</v>
       </c>
       <c r="C47">
@@ -7340,15 +7341,15 @@
         <v>1</v>
       </c>
       <c r="M47">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="33">
+      <c r="B48" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="C48">
@@ -7365,11 +7366,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="33">
+      <c r="B49" s="32">
         <v>0.6875</v>
       </c>
       <c r="C49">
@@ -7386,11 +7387,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="32">
         <v>0.70833333333333404</v>
       </c>
       <c r="C50">
@@ -7407,11 +7408,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="33">
+      <c r="B51" s="32">
         <v>0.72916666666666696</v>
       </c>
       <c r="C51">
@@ -7428,11 +7429,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="33">
+      <c r="B52" s="32">
         <v>0.750000000000001</v>
       </c>
       <c r="C52">
@@ -7449,11 +7450,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="33">
+      <c r="B53" s="32">
         <v>0.77083333333333404</v>
       </c>
       <c r="C53">
@@ -7467,14 +7468,14 @@
       </c>
       <c r="M53">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="33">
+      <c r="B54" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="C54">
@@ -7491,11 +7492,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="33">
+      <c r="B55" s="32">
         <v>0.812500000000001</v>
       </c>
       <c r="C55">
@@ -7509,14 +7510,14 @@
       </c>
       <c r="M55">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="33">
+      <c r="B56" s="32">
         <v>0.27083333333333331</v>
       </c>
       <c r="C56">
@@ -7533,11 +7534,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="33">
+      <c r="B57" s="32">
         <v>0.29166666666666669</v>
       </c>
       <c r="C57">
@@ -7554,11 +7555,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="33">
+      <c r="B58" s="32">
         <v>0.3125</v>
       </c>
       <c r="C58">
@@ -7575,11 +7576,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="33">
+      <c r="B59" s="32">
         <v>0.33333333333333298</v>
       </c>
       <c r="C59">
@@ -7596,11 +7597,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="33">
+      <c r="B60" s="32">
         <v>0.35416666666666702</v>
       </c>
       <c r="C60">
@@ -7617,11 +7618,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="33">
+      <c r="B61" s="32">
         <v>0.375</v>
       </c>
       <c r="C61">
@@ -7638,11 +7639,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="33">
+      <c r="B62" s="32">
         <v>0.39583333333333298</v>
       </c>
       <c r="C62">
@@ -7656,14 +7657,14 @@
       </c>
       <c r="M62">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="33">
+      <c r="B63" s="32">
         <v>0.41666666666666702</v>
       </c>
       <c r="C63">
@@ -7680,11 +7681,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="33">
+      <c r="B64" s="32">
         <v>0.4375</v>
       </c>
       <c r="C64">
@@ -7698,14 +7699,14 @@
       </c>
       <c r="M64">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="33">
+      <c r="B65" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="C65">
@@ -7718,15 +7719,15 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M65:M74" ca="1" si="3">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="33">
+      <c r="B66" s="32">
         <v>0.47916666666666702</v>
       </c>
       <c r="C66">
@@ -7739,15 +7740,15 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="33">
+      <c r="B67" s="32">
         <v>0.5</v>
       </c>
       <c r="C67">
@@ -7760,15 +7761,15 @@
         <v>1</v>
       </c>
       <c r="M67">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="33">
+      <c r="B68" s="32">
         <v>0.52083333333333304</v>
       </c>
       <c r="C68">
@@ -7781,15 +7782,15 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="33">
+      <c r="B69" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="C69">
@@ -7802,15 +7803,15 @@
         <v>1</v>
       </c>
       <c r="M69">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="33">
+      <c r="B70" s="32">
         <v>0.5625</v>
       </c>
       <c r="C70">
@@ -7823,15 +7824,15 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="33">
+      <c r="B71" s="32">
         <v>0.58333333333333404</v>
       </c>
       <c r="C71">
@@ -7844,15 +7845,15 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="33">
+      <c r="B72" s="32">
         <v>0.60416666666666696</v>
       </c>
       <c r="C72">
@@ -7865,15 +7866,15 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="33">
+      <c r="B73" s="32">
         <v>0.625</v>
       </c>
       <c r="C73">
@@ -7886,15 +7887,15 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="33">
+      <c r="B74" s="32">
         <v>0.64583333333333404</v>
       </c>
       <c r="C74">
@@ -7907,15 +7908,15 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="33">
+      <c r="B75" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="C75">
@@ -7932,11 +7933,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="33">
+      <c r="B76" s="32">
         <v>0.6875</v>
       </c>
       <c r="C76">
@@ -7953,11 +7954,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="33">
+      <c r="B77" s="32">
         <v>0.70833333333333404</v>
       </c>
       <c r="C77">
@@ -7971,14 +7972,14 @@
       </c>
       <c r="M77">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="33">
+      <c r="B78" s="32">
         <v>0.72916666666666696</v>
       </c>
       <c r="C78">
@@ -7995,11 +7996,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="33">
+      <c r="B79" s="32">
         <v>0.750000000000001</v>
       </c>
       <c r="C79">
@@ -8016,11 +8017,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="33">
+      <c r="B80" s="32">
         <v>0.77083333333333404</v>
       </c>
       <c r="C80">
@@ -8037,11 +8038,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="33">
+      <c r="B81" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="C81">
@@ -8055,14 +8056,14 @@
       </c>
       <c r="M81">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="33">
+      <c r="B82" s="32">
         <v>0.812500000000001</v>
       </c>
       <c r="C82">
@@ -8076,14 +8077,14 @@
       </c>
       <c r="M82">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="33">
+      <c r="B83" s="32">
         <v>0.27083333333333331</v>
       </c>
       <c r="C83">
@@ -8100,11 +8101,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="33">
+      <c r="B84" s="32">
         <v>0.29166666666666669</v>
       </c>
       <c r="C84">
@@ -8118,14 +8119,14 @@
       </c>
       <c r="M84">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="33">
+      <c r="B85" s="32">
         <v>0.3125</v>
       </c>
       <c r="C85">
@@ -8139,14 +8140,14 @@
       </c>
       <c r="M85">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="33">
+      <c r="B86" s="32">
         <v>0.33333333333333298</v>
       </c>
       <c r="C86">
@@ -8160,14 +8161,14 @@
       </c>
       <c r="M86">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="33">
+      <c r="B87" s="32">
         <v>0.35416666666666702</v>
       </c>
       <c r="C87">
@@ -8184,11 +8185,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="33">
+      <c r="B88" s="32">
         <v>0.375</v>
       </c>
       <c r="C88">
@@ -8202,14 +8203,14 @@
       </c>
       <c r="M88">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="33">
+      <c r="B89" s="32">
         <v>0.39583333333333298</v>
       </c>
       <c r="C89">
@@ -8226,11 +8227,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="33">
+      <c r="B90" s="32">
         <v>0.41666666666666702</v>
       </c>
       <c r="C90">
@@ -8247,11 +8248,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="33">
+      <c r="B91" s="32">
         <v>0.4375</v>
       </c>
       <c r="C91">
@@ -8268,11 +8269,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="33">
+      <c r="B92" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="C92">
@@ -8285,15 +8286,15 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M92:M101" ca="1" si="4">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="33">
+      <c r="B93" s="32">
         <v>0.47916666666666702</v>
       </c>
       <c r="C93">
@@ -8306,15 +8307,15 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="33">
+      <c r="B94" s="32">
         <v>0.5</v>
       </c>
       <c r="C94">
@@ -8327,15 +8328,15 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="33">
+      <c r="B95" s="32">
         <v>0.52083333333333304</v>
       </c>
       <c r="C95">
@@ -8348,15 +8349,15 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="33">
+      <c r="B96" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="C96">
@@ -8369,15 +8370,15 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="33">
+      <c r="B97" s="32">
         <v>0.5625</v>
       </c>
       <c r="C97">
@@ -8390,15 +8391,15 @@
         <v>1</v>
       </c>
       <c r="M97">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="33">
+      <c r="B98" s="32">
         <v>0.58333333333333404</v>
       </c>
       <c r="C98">
@@ -8411,15 +8412,15 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="33">
+      <c r="B99" s="32">
         <v>0.60416666666666696</v>
       </c>
       <c r="C99">
@@ -8432,15 +8433,15 @@
         <v>1</v>
       </c>
       <c r="M99">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="33">
+      <c r="B100" s="32">
         <v>0.625</v>
       </c>
       <c r="C100">
@@ -8453,15 +8454,15 @@
         <v>1</v>
       </c>
       <c r="M100">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="33">
+      <c r="B101" s="32">
         <v>0.64583333333333404</v>
       </c>
       <c r="C101">
@@ -8474,15 +8475,15 @@
         <v>1</v>
       </c>
       <c r="M101">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="33">
+      <c r="B102" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="C102">
@@ -8499,11 +8500,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="33">
+      <c r="B103" s="32">
         <v>0.6875</v>
       </c>
       <c r="C103">
@@ -8520,11 +8521,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="33">
+      <c r="B104" s="32">
         <v>0.70833333333333404</v>
       </c>
       <c r="C104">
@@ -8538,14 +8539,14 @@
       </c>
       <c r="M104">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="33">
+      <c r="B105" s="32">
         <v>0.72916666666666696</v>
       </c>
       <c r="C105">
@@ -8559,14 +8560,14 @@
       </c>
       <c r="M105">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="33">
+      <c r="B106" s="32">
         <v>0.750000000000001</v>
       </c>
       <c r="C106">
@@ -8583,11 +8584,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="33">
+      <c r="B107" s="32">
         <v>0.77083333333333404</v>
       </c>
       <c r="C107">
@@ -8604,11 +8605,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="33">
+      <c r="B108" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="C108">
@@ -8622,14 +8623,14 @@
       </c>
       <c r="M108">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="33">
+      <c r="B109" s="32">
         <v>0.812500000000001</v>
       </c>
       <c r="C109">
@@ -8643,14 +8644,14 @@
       </c>
       <c r="M109">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="33">
+      <c r="B110" s="32">
         <v>0.27083333333333331</v>
       </c>
       <c r="C110">
@@ -8667,11 +8668,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="33">
+      <c r="B111" s="32">
         <v>0.29166666666666669</v>
       </c>
       <c r="C111">
@@ -8688,11 +8689,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="33">
+      <c r="B112" s="32">
         <v>0.3125</v>
       </c>
       <c r="C112">
@@ -8709,11 +8710,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="33">
+      <c r="B113" s="32">
         <v>0.33333333333333298</v>
       </c>
       <c r="C113">
@@ -8730,11 +8731,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="33">
+      <c r="B114" s="32">
         <v>0.35416666666666702</v>
       </c>
       <c r="C114">
@@ -8751,11 +8752,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="33">
+      <c r="B115" s="32">
         <v>0.375</v>
       </c>
       <c r="C115">
@@ -8772,11 +8773,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="33">
+      <c r="B116" s="32">
         <v>0.39583333333333298</v>
       </c>
       <c r="C116">
@@ -8793,11 +8794,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="33">
+      <c r="B117" s="32">
         <v>0.41666666666666702</v>
       </c>
       <c r="C117">
@@ -8814,11 +8815,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="33">
+      <c r="B118" s="32">
         <v>0.4375</v>
       </c>
       <c r="C118">
@@ -8835,11 +8836,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="33">
+      <c r="B119" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="C119">
@@ -8852,15 +8853,15 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M119:M128" ca="1" si="5">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="33">
+      <c r="B120" s="32">
         <v>0.47916666666666702</v>
       </c>
       <c r="C120">
@@ -8873,15 +8874,15 @@
         <v>1</v>
       </c>
       <c r="M120">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="33">
+      <c r="B121" s="32">
         <v>0.5</v>
       </c>
       <c r="C121">
@@ -8894,15 +8895,15 @@
         <v>1</v>
       </c>
       <c r="M121">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="33">
+      <c r="B122" s="32">
         <v>0.52083333333333304</v>
       </c>
       <c r="C122">
@@ -8915,15 +8916,15 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="33">
+      <c r="B123" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="C123">
@@ -8936,15 +8937,15 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="33">
+      <c r="B124" s="32">
         <v>0.5625</v>
       </c>
       <c r="C124">
@@ -8957,15 +8958,15 @@
         <v>1</v>
       </c>
       <c r="M124">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="33">
+      <c r="B125" s="32">
         <v>0.58333333333333404</v>
       </c>
       <c r="C125">
@@ -8978,15 +8979,15 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="33">
+      <c r="B126" s="32">
         <v>0.60416666666666696</v>
       </c>
       <c r="C126">
@@ -8999,15 +9000,15 @@
         <v>1</v>
       </c>
       <c r="M126">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="33">
+      <c r="B127" s="32">
         <v>0.625</v>
       </c>
       <c r="C127">
@@ -9020,15 +9021,15 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="33">
+      <c r="B128" s="32">
         <v>0.64583333333333404</v>
       </c>
       <c r="C128">
@@ -9041,15 +9042,15 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="33">
+      <c r="B129" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="C129">
@@ -9063,14 +9064,14 @@
       </c>
       <c r="M129">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="33">
+      <c r="B130" s="32">
         <v>0.6875</v>
       </c>
       <c r="C130">
@@ -9087,11 +9088,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="33">
+      <c r="B131" s="32">
         <v>0.70833333333333404</v>
       </c>
       <c r="C131">
@@ -9108,11 +9109,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="33">
+      <c r="B132" s="32">
         <v>0.72916666666666696</v>
       </c>
       <c r="C132">
@@ -9129,11 +9130,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="33">
+      <c r="B133" s="32">
         <v>0.750000000000001</v>
       </c>
       <c r="C133">
@@ -9150,11 +9151,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="33">
+      <c r="B134" s="32">
         <v>0.77083333333333404</v>
       </c>
       <c r="C134">
@@ -9171,11 +9172,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="33">
+      <c r="B135" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="C135">
@@ -9192,11 +9193,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="33">
+      <c r="B136" s="32">
         <v>0.812500000000001</v>
       </c>
       <c r="C136">
@@ -9213,11 +9214,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="33">
+      <c r="B137" s="32">
         <v>0.27083333333333331</v>
       </c>
       <c r="C137">
@@ -9228,14 +9229,14 @@
       </c>
       <c r="M137">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="33">
+      <c r="B138" s="32">
         <v>0.29166666666666669</v>
       </c>
       <c r="C138">
@@ -9249,11 +9250,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="33">
+      <c r="B139" s="32">
         <v>0.3125</v>
       </c>
       <c r="C139">
@@ -9267,11 +9268,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="33">
+      <c r="B140" s="32">
         <v>0.33333333333333298</v>
       </c>
       <c r="C140">
@@ -9285,11 +9286,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="33">
+      <c r="B141" s="32">
         <v>0.35416666666666702</v>
       </c>
       <c r="C141">
@@ -9303,11 +9304,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="33">
+      <c r="B142" s="32">
         <v>0.375</v>
       </c>
       <c r="C142">
@@ -9321,11 +9322,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="33">
+      <c r="B143" s="32">
         <v>0.39583333333333298</v>
       </c>
       <c r="C143">
@@ -9339,11 +9340,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="33">
+      <c r="B144" s="32">
         <v>0.41666666666666702</v>
       </c>
       <c r="C144">
@@ -9354,14 +9355,14 @@
       </c>
       <c r="M144">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="33">
+      <c r="B145" s="32">
         <v>0.4375</v>
       </c>
       <c r="C145">
@@ -9375,11 +9376,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="33">
+      <c r="B146" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="C146">
@@ -9389,15 +9390,15 @@
         <v>6</v>
       </c>
       <c r="M146">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M146:M155" ca="1" si="6">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="33">
+      <c r="B147" s="32">
         <v>0.47916666666666702</v>
       </c>
       <c r="C147">
@@ -9407,15 +9408,15 @@
         <v>6</v>
       </c>
       <c r="M147">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="33">
+      <c r="B148" s="32">
         <v>0.5</v>
       </c>
       <c r="C148">
@@ -9425,15 +9426,15 @@
         <v>6</v>
       </c>
       <c r="M148">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="33">
+      <c r="B149" s="32">
         <v>0.52083333333333304</v>
       </c>
       <c r="C149">
@@ -9443,15 +9444,15 @@
         <v>6</v>
       </c>
       <c r="M149">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="33">
+      <c r="B150" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="C150">
@@ -9461,15 +9462,15 @@
         <v>6</v>
       </c>
       <c r="M150">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="33">
+      <c r="B151" s="32">
         <v>0.5625</v>
       </c>
       <c r="C151">
@@ -9479,15 +9480,15 @@
         <v>6</v>
       </c>
       <c r="M151">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="33">
+      <c r="B152" s="32">
         <v>0.58333333333333404</v>
       </c>
       <c r="C152">
@@ -9497,15 +9498,15 @@
         <v>6</v>
       </c>
       <c r="M152">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="33">
+      <c r="B153" s="32">
         <v>0.60416666666666696</v>
       </c>
       <c r="C153">
@@ -9515,15 +9516,15 @@
         <v>6</v>
       </c>
       <c r="M153">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="33">
+      <c r="B154" s="32">
         <v>0.625</v>
       </c>
       <c r="C154">
@@ -9533,15 +9534,15 @@
         <v>6</v>
       </c>
       <c r="M154">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="33">
+      <c r="B155" s="32">
         <v>0.64583333333333404</v>
       </c>
       <c r="C155">
@@ -9551,15 +9552,15 @@
         <v>6</v>
       </c>
       <c r="M155">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="33">
+      <c r="B156" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="C156">
@@ -9570,14 +9571,14 @@
       </c>
       <c r="M156">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="33">
+      <c r="B157" s="32">
         <v>0.6875</v>
       </c>
       <c r="C157">
@@ -9588,14 +9589,14 @@
       </c>
       <c r="M157">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="33">
+      <c r="B158" s="32">
         <v>0.70833333333333404</v>
       </c>
       <c r="C158">
@@ -9606,14 +9607,14 @@
       </c>
       <c r="M158">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="33">
+      <c r="B159" s="32">
         <v>0.72916666666666696</v>
       </c>
       <c r="C159">
@@ -9627,11 +9628,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="33">
+      <c r="B160" s="32">
         <v>0.750000000000001</v>
       </c>
       <c r="C160">
@@ -9642,14 +9643,14 @@
       </c>
       <c r="M160">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="33">
+      <c r="B161" s="32">
         <v>0.77083333333333404</v>
       </c>
       <c r="C161">
@@ -9663,11 +9664,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="33">
+      <c r="B162" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="C162">
@@ -9678,14 +9679,14 @@
       </c>
       <c r="M162">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="33">
+      <c r="B163" s="32">
         <v>0.812500000000001</v>
       </c>
       <c r="C163">
@@ -9699,11 +9700,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="33">
+      <c r="B164" s="32">
         <v>0.27083333333333331</v>
       </c>
       <c r="C164">
@@ -9717,11 +9718,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="33">
+      <c r="B165" s="32">
         <v>0.29166666666666669</v>
       </c>
       <c r="C165">
@@ -9732,14 +9733,14 @@
       </c>
       <c r="M165">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="33">
+      <c r="B166" s="32">
         <v>0.3125</v>
       </c>
       <c r="C166">
@@ -9753,11 +9754,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="33">
+      <c r="B167" s="32">
         <v>0.33333333333333298</v>
       </c>
       <c r="C167">
@@ -9768,14 +9769,14 @@
       </c>
       <c r="M167">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="33">
+      <c r="B168" s="32">
         <v>0.35416666666666702</v>
       </c>
       <c r="C168">
@@ -9786,14 +9787,14 @@
       </c>
       <c r="M168">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
-      <c r="B169" s="33">
+      <c r="B169" s="32">
         <v>0.375</v>
       </c>
       <c r="C169">
@@ -9807,11 +9808,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
-      <c r="B170" s="33">
+      <c r="B170" s="32">
         <v>0.39583333333333298</v>
       </c>
       <c r="C170">
@@ -9825,11 +9826,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
-      <c r="B171" s="33">
+      <c r="B171" s="32">
         <v>0.41666666666666702</v>
       </c>
       <c r="C171">
@@ -9843,11 +9844,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
-      <c r="B172" s="33">
+      <c r="B172" s="32">
         <v>0.4375</v>
       </c>
       <c r="C172">
@@ -9858,14 +9859,14 @@
       </c>
       <c r="M172">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
-      <c r="B173" s="33">
+      <c r="B173" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="C173">
@@ -9875,15 +9876,15 @@
         <v>7</v>
       </c>
       <c r="M173">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M173:M182" ca="1" si="7">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="33">
+      <c r="B174" s="32">
         <v>0.47916666666666702</v>
       </c>
       <c r="C174">
@@ -9893,15 +9894,15 @@
         <v>7</v>
       </c>
       <c r="M174">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="33">
+      <c r="B175" s="32">
         <v>0.5</v>
       </c>
       <c r="C175">
@@ -9911,15 +9912,15 @@
         <v>7</v>
       </c>
       <c r="M175">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="33">
+      <c r="B176" s="32">
         <v>0.52083333333333304</v>
       </c>
       <c r="C176">
@@ -9929,15 +9930,15 @@
         <v>7</v>
       </c>
       <c r="M176">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="33">
+      <c r="B177" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="C177">
@@ -9947,15 +9948,15 @@
         <v>7</v>
       </c>
       <c r="M177">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
-      <c r="B178" s="33">
+      <c r="B178" s="32">
         <v>0.5625</v>
       </c>
       <c r="C178">
@@ -9965,15 +9966,15 @@
         <v>7</v>
       </c>
       <c r="M178">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
-      <c r="B179" s="33">
+      <c r="B179" s="32">
         <v>0.58333333333333404</v>
       </c>
       <c r="C179">
@@ -9983,15 +9984,15 @@
         <v>7</v>
       </c>
       <c r="M179">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
-      <c r="B180" s="33">
+      <c r="B180" s="32">
         <v>0.60416666666666696</v>
       </c>
       <c r="C180">
@@ -10001,15 +10002,15 @@
         <v>7</v>
       </c>
       <c r="M180">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
-      <c r="B181" s="33">
+      <c r="B181" s="32">
         <v>0.625</v>
       </c>
       <c r="C181">
@@ -10019,15 +10020,15 @@
         <v>7</v>
       </c>
       <c r="M181">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
-      <c r="B182" s="33">
+      <c r="B182" s="32">
         <v>0.64583333333333404</v>
       </c>
       <c r="C182">
@@ -10037,15 +10038,15 @@
         <v>7</v>
       </c>
       <c r="M182">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
-      <c r="B183" s="33">
+      <c r="B183" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="C183">
@@ -10059,11 +10060,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
-      <c r="B184" s="33">
+      <c r="B184" s="32">
         <v>0.6875</v>
       </c>
       <c r="C184">
@@ -10077,11 +10078,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
-      <c r="B185" s="33">
+      <c r="B185" s="32">
         <v>0.70833333333333404</v>
       </c>
       <c r="C185">
@@ -10095,11 +10096,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
-      <c r="B186" s="33">
+      <c r="B186" s="32">
         <v>0.72916666666666696</v>
       </c>
       <c r="C186">
@@ -10113,11 +10114,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
-      <c r="B187" s="33">
+      <c r="B187" s="32">
         <v>0.750000000000001</v>
       </c>
       <c r="C187">
@@ -10131,11 +10132,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
-      <c r="B188" s="33">
+      <c r="B188" s="32">
         <v>0.77083333333333404</v>
       </c>
       <c r="C188">
@@ -10149,11 +10150,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
-      <c r="B189" s="33">
+      <c r="B189" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="C189">
@@ -10164,14 +10165,14 @@
       </c>
       <c r="M189">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
-      <c r="B190" s="33">
+      <c r="B190" s="32">
         <v>0.812500000000001</v>
       </c>
       <c r="C190">
@@ -10185,11 +10186,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
-      <c r="B191" s="33">
+      <c r="B191" s="32">
         <v>0.27083333333333331</v>
       </c>
       <c r="C191">
@@ -10200,14 +10201,14 @@
       </c>
       <c r="M191">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
-      <c r="B192" s="33">
+      <c r="B192" s="32">
         <v>0.29166666666666669</v>
       </c>
       <c r="C192">
@@ -10218,14 +10219,14 @@
       </c>
       <c r="M192">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
-      <c r="B193" s="33">
+      <c r="B193" s="32">
         <v>0.3125</v>
       </c>
       <c r="C193">
@@ -10236,14 +10237,14 @@
       </c>
       <c r="M193">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
-      <c r="B194" s="33">
+      <c r="B194" s="32">
         <v>0.33333333333333298</v>
       </c>
       <c r="C194">
@@ -10257,11 +10258,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
-      <c r="B195" s="33">
+      <c r="B195" s="32">
         <v>0.35416666666666702</v>
       </c>
       <c r="C195">
@@ -10272,14 +10273,14 @@
       </c>
       <c r="M195">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
-      <c r="B196" s="33">
+      <c r="B196" s="32">
         <v>0.375</v>
       </c>
       <c r="C196">
@@ -10290,14 +10291,14 @@
       </c>
       <c r="M196">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
-      <c r="B197" s="33">
+      <c r="B197" s="32">
         <v>0.39583333333333298</v>
       </c>
       <c r="C197">
@@ -10311,11 +10312,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
-      <c r="B198" s="33">
+      <c r="B198" s="32">
         <v>0.41666666666666702</v>
       </c>
       <c r="C198">
@@ -10326,14 +10327,14 @@
       </c>
       <c r="M198">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
-      <c r="B199" s="33">
+      <c r="B199" s="32">
         <v>0.4375</v>
       </c>
       <c r="C199">
@@ -10344,14 +10345,14 @@
       </c>
       <c r="M199">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
-      <c r="B200" s="33">
+      <c r="B200" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="C200">
@@ -10361,15 +10362,15 @@
         <v>8</v>
       </c>
       <c r="M200">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M200:M209" ca="1" si="8">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
-      <c r="B201" s="33">
+      <c r="B201" s="32">
         <v>0.47916666666666702</v>
       </c>
       <c r="C201">
@@ -10379,15 +10380,15 @@
         <v>8</v>
       </c>
       <c r="M201">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
-      <c r="B202" s="33">
+      <c r="B202" s="32">
         <v>0.5</v>
       </c>
       <c r="C202">
@@ -10397,15 +10398,15 @@
         <v>8</v>
       </c>
       <c r="M202">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
-      <c r="B203" s="33">
+      <c r="B203" s="32">
         <v>0.52083333333333304</v>
       </c>
       <c r="C203">
@@ -10415,15 +10416,15 @@
         <v>8</v>
       </c>
       <c r="M203">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
-      <c r="B204" s="33">
+      <c r="B204" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="C204">
@@ -10433,15 +10434,15 @@
         <v>8</v>
       </c>
       <c r="M204">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
-      <c r="B205" s="33">
+      <c r="B205" s="32">
         <v>0.5625</v>
       </c>
       <c r="C205">
@@ -10451,15 +10452,15 @@
         <v>8</v>
       </c>
       <c r="M205">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
-      <c r="B206" s="33">
+      <c r="B206" s="32">
         <v>0.58333333333333404</v>
       </c>
       <c r="C206">
@@ -10469,15 +10470,15 @@
         <v>8</v>
       </c>
       <c r="M206">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
-      <c r="B207" s="33">
+      <c r="B207" s="32">
         <v>0.60416666666666696</v>
       </c>
       <c r="C207">
@@ -10487,15 +10488,15 @@
         <v>8</v>
       </c>
       <c r="M207">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
-      <c r="B208" s="33">
+      <c r="B208" s="32">
         <v>0.625</v>
       </c>
       <c r="C208">
@@ -10505,15 +10506,15 @@
         <v>8</v>
       </c>
       <c r="M208">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
-      <c r="B209" s="33">
+      <c r="B209" s="32">
         <v>0.64583333333333404</v>
       </c>
       <c r="C209">
@@ -10523,15 +10524,15 @@
         <v>8</v>
       </c>
       <c r="M209">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
-      <c r="B210" s="33">
+      <c r="B210" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="C210">
@@ -10542,14 +10543,14 @@
       </c>
       <c r="M210">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
-      <c r="B211" s="33">
+      <c r="B211" s="32">
         <v>0.6875</v>
       </c>
       <c r="C211">
@@ -10563,11 +10564,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
-      <c r="B212" s="33">
+      <c r="B212" s="32">
         <v>0.70833333333333404</v>
       </c>
       <c r="C212">
@@ -10581,11 +10582,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
-      <c r="B213" s="33">
+      <c r="B213" s="32">
         <v>0.72916666666666696</v>
       </c>
       <c r="C213">
@@ -10599,11 +10600,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
-      <c r="B214" s="33">
+      <c r="B214" s="32">
         <v>0.750000000000001</v>
       </c>
       <c r="C214">
@@ -10617,11 +10618,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
-      <c r="B215" s="33">
+      <c r="B215" s="32">
         <v>0.77083333333333404</v>
       </c>
       <c r="C215">
@@ -10635,11 +10636,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
-      <c r="B216" s="33">
+      <c r="B216" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="C216">
@@ -10653,11 +10654,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
-      <c r="B217" s="33">
+      <c r="B217" s="32">
         <v>0.812500000000001</v>
       </c>
       <c r="C217">
@@ -10668,14 +10669,14 @@
       </c>
       <c r="M217">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
-      <c r="B218" s="33">
+      <c r="B218" s="32">
         <v>0.27083333333333331</v>
       </c>
       <c r="C218">
@@ -10689,11 +10690,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
-      <c r="B219" s="33">
+      <c r="B219" s="32">
         <v>0.29166666666666669</v>
       </c>
       <c r="C219">
@@ -10707,11 +10708,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
-      <c r="B220" s="33">
+      <c r="B220" s="32">
         <v>0.3125</v>
       </c>
       <c r="C220">
@@ -10725,11 +10726,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
-      <c r="B221" s="33">
+      <c r="B221" s="32">
         <v>0.33333333333333298</v>
       </c>
       <c r="C221">
@@ -10740,14 +10741,14 @@
       </c>
       <c r="M221">
         <f ca="1">MAX(0,RANDBETWEEN(-3,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
-      <c r="B222" s="33">
+      <c r="B222" s="32">
         <v>0.35416666666666702</v>
       </c>
       <c r="C222">
@@ -10761,11 +10762,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
-      <c r="B223" s="33">
+      <c r="B223" s="32">
         <v>0.375</v>
       </c>
       <c r="C223">
@@ -10779,11 +10780,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
-      <c r="B224" s="33">
+      <c r="B224" s="32">
         <v>0.39583333333333298</v>
       </c>
       <c r="C224">
@@ -10794,14 +10795,14 @@
       </c>
       <c r="M224">
         <f ca="1">MAX(0,RANDBETWEEN(-2,1))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
-      <c r="B225" s="33">
+      <c r="B225" s="32">
         <v>0.41666666666666702</v>
       </c>
       <c r="C225">
@@ -10815,11 +10816,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
-      <c r="B226" s="33">
+      <c r="B226" s="32">
         <v>0.4375</v>
       </c>
       <c r="C226">
@@ -10833,11 +10834,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
-      <c r="B227" s="33">
+      <c r="B227" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="C227">
@@ -10847,15 +10848,15 @@
         <v>9</v>
       </c>
       <c r="M227">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M227:M236" ca="1" si="9">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
-      <c r="B228" s="33">
+      <c r="B228" s="32">
         <v>0.47916666666666702</v>
       </c>
       <c r="C228">
@@ -10865,15 +10866,15 @@
         <v>9</v>
       </c>
       <c r="M228">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
-      <c r="B229" s="33">
+      <c r="B229" s="32">
         <v>0.5</v>
       </c>
       <c r="C229">
@@ -10883,15 +10884,15 @@
         <v>9</v>
       </c>
       <c r="M229">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
-      <c r="B230" s="33">
+      <c r="B230" s="32">
         <v>0.52083333333333304</v>
       </c>
       <c r="C230">
@@ -10901,15 +10902,15 @@
         <v>9</v>
       </c>
       <c r="M230">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
-      <c r="B231" s="33">
+      <c r="B231" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="C231">
@@ -10919,15 +10920,15 @@
         <v>9</v>
       </c>
       <c r="M231">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
-      <c r="B232" s="33">
+      <c r="B232" s="32">
         <v>0.5625</v>
       </c>
       <c r="C232">
@@ -10937,15 +10938,15 @@
         <v>9</v>
       </c>
       <c r="M232">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
-      <c r="B233" s="33">
+      <c r="B233" s="32">
         <v>0.58333333333333404</v>
       </c>
       <c r="C233">
@@ -10955,15 +10956,15 @@
         <v>9</v>
       </c>
       <c r="M233">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
-      <c r="B234" s="33">
+      <c r="B234" s="32">
         <v>0.60416666666666696</v>
       </c>
       <c r="C234">
@@ -10973,15 +10974,15 @@
         <v>9</v>
       </c>
       <c r="M234">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
-      <c r="B235" s="33">
+      <c r="B235" s="32">
         <v>0.625</v>
       </c>
       <c r="C235">
@@ -10991,15 +10992,15 @@
         <v>9</v>
       </c>
       <c r="M235">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
-      <c r="B236" s="33">
+      <c r="B236" s="32">
         <v>0.64583333333333404</v>
       </c>
       <c r="C236">
@@ -11009,15 +11010,15 @@
         <v>9</v>
       </c>
       <c r="M236">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" s="33">
+      <c r="B237" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="C237">
@@ -11028,14 +11029,14 @@
       </c>
       <c r="M237">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" s="33">
+      <c r="B238" s="32">
         <v>0.6875</v>
       </c>
       <c r="C238">
@@ -11049,11 +11050,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" s="33">
+      <c r="B239" s="32">
         <v>0.70833333333333404</v>
       </c>
       <c r="C239">
@@ -11067,11 +11068,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" s="33">
+      <c r="B240" s="32">
         <v>0.72916666666666696</v>
       </c>
       <c r="C240">
@@ -11085,11 +11086,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" s="33">
+      <c r="B241" s="32">
         <v>0.750000000000001</v>
       </c>
       <c r="C241">
@@ -11103,11 +11104,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" s="33">
+      <c r="B242" s="32">
         <v>0.77083333333333404</v>
       </c>
       <c r="C242">
@@ -11121,11 +11122,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" s="33">
+      <c r="B243" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="C243">
@@ -11139,11 +11140,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" s="33">
+      <c r="B244" s="32">
         <v>0.812500000000001</v>
       </c>
       <c r="C244">
@@ -11154,14 +11155,14 @@
       </c>
       <c r="M244">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" s="33">
+      <c r="B245" s="32">
         <v>0.27083333333333331</v>
       </c>
       <c r="C245">
@@ -11175,11 +11176,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
-      <c r="B246" s="33">
+      <c r="B246" s="32">
         <v>0.29166666666666669</v>
       </c>
       <c r="C246">
@@ -11193,11 +11194,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" s="33">
+      <c r="B247" s="32">
         <v>0.3125</v>
       </c>
       <c r="C247">
@@ -11211,11 +11212,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" s="33">
+      <c r="B248" s="32">
         <v>0.33333333333333298</v>
       </c>
       <c r="C248">
@@ -11229,11 +11230,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" s="33">
+      <c r="B249" s="32">
         <v>0.35416666666666702</v>
       </c>
       <c r="C249">
@@ -11247,11 +11248,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" s="33">
+      <c r="B250" s="32">
         <v>0.375</v>
       </c>
       <c r="C250">
@@ -11265,11 +11266,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" s="33">
+      <c r="B251" s="32">
         <v>0.39583333333333298</v>
       </c>
       <c r="C251">
@@ -11283,11 +11284,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
-      <c r="B252" s="33">
+      <c r="B252" s="32">
         <v>0.41666666666666702</v>
       </c>
       <c r="C252">
@@ -11301,11 +11302,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
-      <c r="B253" s="33">
+      <c r="B253" s="32">
         <v>0.4375</v>
       </c>
       <c r="C253">
@@ -11319,11 +11320,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
-      <c r="B254" s="33">
+      <c r="B254" s="32">
         <v>0.45833333333333298</v>
       </c>
       <c r="C254">
@@ -11333,15 +11334,15 @@
         <v>10</v>
       </c>
       <c r="M254">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M254:M263" ca="1" si="10">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
-      <c r="B255" s="33">
+      <c r="B255" s="32">
         <v>0.47916666666666702</v>
       </c>
       <c r="C255">
@@ -11351,15 +11352,15 @@
         <v>10</v>
       </c>
       <c r="M255">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
-      <c r="B256" s="33">
+      <c r="B256" s="32">
         <v>0.5</v>
       </c>
       <c r="C256">
@@ -11369,15 +11370,15 @@
         <v>10</v>
       </c>
       <c r="M256">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
-      <c r="B257" s="33">
+      <c r="B257" s="32">
         <v>0.52083333333333304</v>
       </c>
       <c r="C257">
@@ -11387,15 +11388,15 @@
         <v>10</v>
       </c>
       <c r="M257">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
-      <c r="B258" s="33">
+      <c r="B258" s="32">
         <v>0.54166666666666696</v>
       </c>
       <c r="C258">
@@ -11405,15 +11406,15 @@
         <v>10</v>
       </c>
       <c r="M258">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
-      <c r="B259" s="33">
+      <c r="B259" s="32">
         <v>0.5625</v>
       </c>
       <c r="C259">
@@ -11423,15 +11424,15 @@
         <v>10</v>
       </c>
       <c r="M259">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
-      <c r="B260" s="33">
+      <c r="B260" s="32">
         <v>0.58333333333333404</v>
       </c>
       <c r="C260">
@@ -11441,15 +11442,15 @@
         <v>10</v>
       </c>
       <c r="M260">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
-      <c r="B261" s="33">
+      <c r="B261" s="32">
         <v>0.60416666666666696</v>
       </c>
       <c r="C261">
@@ -11459,15 +11460,15 @@
         <v>10</v>
       </c>
       <c r="M261">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
-      <c r="B262" s="33">
+      <c r="B262" s="32">
         <v>0.625</v>
       </c>
       <c r="C262">
@@ -11477,15 +11478,15 @@
         <v>10</v>
       </c>
       <c r="M262">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
-      <c r="B263" s="33">
+      <c r="B263" s="32">
         <v>0.64583333333333404</v>
       </c>
       <c r="C263">
@@ -11495,15 +11496,15 @@
         <v>10</v>
       </c>
       <c r="M263">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
-      <c r="B264" s="33">
+      <c r="B264" s="32">
         <v>0.66666666666666696</v>
       </c>
       <c r="C264">
@@ -11514,14 +11515,14 @@
       </c>
       <c r="M264">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
-      <c r="B265" s="33">
+      <c r="B265" s="32">
         <v>0.6875</v>
       </c>
       <c r="C265">
@@ -11532,14 +11533,14 @@
       </c>
       <c r="M265">
         <f ca="1">MIN(1,RANDBETWEEN(0,3))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
-      <c r="B266" s="33">
+      <c r="B266" s="32">
         <v>0.70833333333333404</v>
       </c>
       <c r="C266">
@@ -11553,11 +11554,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
-      <c r="B267" s="33">
+      <c r="B267" s="32">
         <v>0.72916666666666696</v>
       </c>
       <c r="C267">
@@ -11568,14 +11569,14 @@
       </c>
       <c r="M267">
         <f ca="1">MIN(1,RANDBETWEEN(0,5))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
-      <c r="B268" s="33">
+      <c r="B268" s="32">
         <v>0.750000000000001</v>
       </c>
       <c r="C268">
@@ -11589,11 +11590,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
-      <c r="B269" s="33">
+      <c r="B269" s="32">
         <v>0.77083333333333404</v>
       </c>
       <c r="C269">
@@ -11607,11 +11608,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
-      <c r="B270" s="33">
+      <c r="B270" s="32">
         <v>0.79166666666666696</v>
       </c>
       <c r="C270">
@@ -11625,11 +11626,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
-      <c r="B271" s="33">
+      <c r="B271" s="32">
         <v>0.812500000000001</v>
       </c>
       <c r="C271">
@@ -11652,23 +11653,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05936047-5904-418E-A55C-C4DA21A813CC}">
   <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -11684,13 +11684,13 @@
       <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>0.25</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>0.29166666666666669</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>0.33333333333333298</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>0.375</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>0.25</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>0.29166666666666669</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>0.33333333333333298</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0.375</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>0.25</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>0.29166666666666669</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>0.33333333333333298</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>0.375</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>1</v>
       </c>
@@ -11965,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>0.25</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>0.29166666666666669</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>0.33333333333333298</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>0.375</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>0.41666666666666669</v>
       </c>
@@ -12034,20 +12034,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73524ACB-E091-47FC-85ED-33A45CDDAB14}">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="5.81640625" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="19">
         <v>0.25</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
         <v>0.25</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="19">
         <v>0.25</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
@@ -12144,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="24">
         <v>0.25</v>
       </c>
